--- a/enquiry_list.xlsx
+++ b/enquiry_list.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>pop</t>
+  </si>
+  <si>
+    <t>This is a sample enquiry</t>
+  </si>
+  <si>
+    <t>This is an edited sample enquiry</t>
   </si>
 </sst>
 </file>
@@ -420,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -573,6 +579,26 @@
         <v>9.0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/enquiry_list.xlsx
+++ b/enquiry_list.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>This is an edited sample enquiry</t>
+  </si>
+  <si>
+    <t>what do you guys teach</t>
+  </si>
+  <si>
+    <t>we teach arts and shit</t>
   </si>
 </sst>
 </file>
@@ -426,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -599,6 +605,26 @@
         <v>-1.0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/enquiry_list.xlsx
+++ b/enquiry_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/CAMs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/SC2002-CAMSV2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5C41DE5-87C9-48AF-96B9-1960DB412935}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E8252C6-99D5-4770-A4FB-8F91C793D925}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -56,46 +56,19 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>afosdfkadpfdapapb</t>
-  </si>
-  <si>
-    <t>dsadadasdasadsad</t>
-  </si>
-  <si>
-    <t>yuu</t>
+    <t>is food provided?</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>oioi</t>
-  </si>
-  <si>
-    <t>qwieiwquewqui</t>
-  </si>
-  <si>
-    <t>oi</t>
-  </si>
-  <si>
-    <t>popopoop</t>
-  </si>
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>This is a sample enquiry</t>
-  </si>
-  <si>
-    <t>This is an edited sample enquiry</t>
-  </si>
-  <si>
-    <t>what do you guys teach</t>
-  </si>
-  <si>
-    <t>we teach arts and shit</t>
+    <t>Is water provided?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -167,6 +140,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -470,19 +447,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0">
         <v>7</v>
       </c>
-      <c r="E2" s="0">
-        <v>6</v>
-      </c>
       <c r="F2" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -490,139 +467,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="0">
-        <v>6</v>
-      </c>
-      <c r="F3" s="0">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="0">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0">
-        <v>6</v>
-      </c>
-      <c r="F4" s="0">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="0">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E5" s="0">
         <v>7</v>
       </c>
-      <c r="F5" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="0">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E6" s="0">
-        <v>6</v>
-      </c>
-      <c r="F6" s="0">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B7" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="F7" t="n" s="0">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B8" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E8" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="F8" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B9" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E9" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="F9" t="n" s="0">
-        <v>2.0</v>
+      <c r="F3" s="0" t="n">
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>
